--- a/src/工装明细表.xlsx
+++ b/src/工装明细表.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\西航\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DB83BD-AA5E-4116-AE53-BE833194E729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="16872" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="18210" windowHeight="6510"/>
   </bookViews>
   <sheets>
     <sheet name="工装明细表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,6 +46,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>领到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请单号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注（共用零组件号）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>夹具</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -64,30 +75,14 @@
   </si>
   <si>
     <t>模具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>领到</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工具名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请单号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注（共用零组件号）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,7 +243,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -283,7 +278,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -460,31 +455,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="20.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -501,7 +496,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -522,36 +517,36 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -564,7 +559,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -577,7 +572,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -590,7 +585,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
